--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario" sheetId="4" r:id="rId1"/>
+    <sheet name="Settings" sheetId="4" r:id="rId1"/>
     <sheet name="cmaes" sheetId="1" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="74">
   <si>
     <t>Scenario</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>[1.405;0.68841]</t>
+  </si>
+  <si>
+    <t>[1.0417;0.8718]</t>
+  </si>
+  <si>
+    <t>210E</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Pems processed folder</t>
   </si>
 </sst>
 </file>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,23 +814,36 @@
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -831,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
@@ -952,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="AZ1" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BA1" s="22"/>
       <c r="BB1" s="6"/>
@@ -3568,24 +3593,58 @@
       <c r="BB31" s="7"/>
     </row>
     <row r="32" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1500</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="7">
+        <v>8</v>
+      </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>

--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
   <si>
     <t>Scenario</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>Pems processed folder</t>
+  </si>
+  <si>
+    <t>[0;0]</t>
+  </si>
+  <si>
+    <t>[5;5]</t>
+  </si>
+  <si>
+    <t>[0.71394;1.8066]</t>
   </si>
 </sst>
 </file>
@@ -805,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -856,9 +865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +883,7 @@
     <col min="13" max="13" width="12" style="11" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" style="11" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" style="11" customWidth="1"/>
     <col min="17" max="17" width="20" style="11" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="11" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="9" customWidth="1"/>
@@ -977,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="AZ1" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BA1" s="22"/>
       <c r="BB1" s="6"/>
@@ -3683,24 +3692,54 @@
       <c r="BB32" s="7"/>
     </row>
     <row r="33" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1500</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="7">
+        <v>7767716647.3344612</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="7">
+        <v>8</v>
+      </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>

--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="82">
   <si>
     <t>Scenario</t>
   </si>
@@ -249,6 +249,21 @@
   </si>
   <si>
     <t>[0.71394;1.8066]</t>
+  </si>
+  <si>
+    <t>[1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25]</t>
+  </si>
+  <si>
+    <t>[0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5]</t>
+  </si>
+  <si>
+    <t>[0;0;0;0;0;0;0;0;0;0;0]</t>
+  </si>
+  <si>
+    <t>[2.6042;3.9683;5.2083;2.3981;1.3072;2.103;1.3072;1.3072;1.3072;1.3072;148.1481]</t>
+  </si>
+  <si>
+    <t>[2.1717;3.9683;1.8735;1.8476;0;1.9573;0;0.88062;0.53712;0.6878;12.4949]</t>
   </si>
 </sst>
 </file>
@@ -865,9 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="AZ1" s="24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BA1" s="22"/>
       <c r="BB1" s="6"/>
@@ -3778,24 +3793,58 @@
       <c r="BB33" s="7"/>
     </row>
     <row r="34" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1500</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34" s="7">
+        <v>441898.12790347892</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="7">
+        <v>13</v>
+      </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>

--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -880,9 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="AZ1" s="24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BA1" s="22"/>
       <c r="BB1" s="6"/>

--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="84">
   <si>
     <t>Scenario</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>[2.1717;3.9683;1.8735;1.8476;0;1.9573;0;0.88062;0.53712;0.6878;12.4949]</t>
+  </si>
+  <si>
+    <t>[2.3588;0.50392;4.7572;1.5164;0.1275;0.5857;0.71488;1.2516;1.2613;0.20603;143.7915]</t>
+  </si>
+  <si>
+    <t>[1.461;0.75774;5.2083;1.4052;0;0.28874;0.62948;0.93877;1.0628;0.22102;122.9023]</t>
   </si>
 </sst>
 </file>
@@ -880,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="AZ1" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BA1" s="22"/>
       <c r="BB1" s="6"/>
@@ -3939,25 +3945,57 @@
       <c r="BB35" s="7"/>
     </row>
     <row r="36" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="7">
+        <v>10</v>
+      </c>
+      <c r="M36" s="7">
+        <v>10</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" s="7">
+        <v>5947954.8108171225</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7">
+        <v>13</v>
+      </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>

--- a/xls/Cmaes_210E_Results.xlsx
+++ b/xls/Cmaes_210E_Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="89">
   <si>
     <t>Scenario</t>
   </si>
@@ -270,6 +270,21 @@
   </si>
   <si>
     <t>[1.461;0.75774;5.2083;1.4052;0;0.28874;0.62948;0.93877;1.0628;0.22102;122.9023]</t>
+  </si>
+  <si>
+    <t>[0.58284;2.9812;2.042;2.5172;2.6785;3.6216;4.1528;4.7184;0.35815;0.19345;37.2714]</t>
+  </si>
+  <si>
+    <t>[2.6042;3.9683;8.0048;4.9751;3.8314;4.065;4.329;8.6226;2.5836;1.2957;144.7387]</t>
+  </si>
+  <si>
+    <t>[0.30437;2.4779;2.2746;1.8546;3.6052;2.1412;2.9056;3.9591;0.43597;0.24074;44.5662]</t>
+  </si>
+  <si>
+    <t>[0;3.1722;1.8512;2.8593;3.7887;2.3674;1.9722;4.1514;0.25531;0.22384;70.9929]</t>
+  </si>
+  <si>
+    <t>Starting Point</t>
   </si>
 </sst>
 </file>
@@ -542,12 +557,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -589,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +857,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
@@ -884,37 +902,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB202"/>
+  <dimension ref="A1:BC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
-    <col min="6" max="10" width="10.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="20" style="11" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="9" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="13"/>
-    <col min="22" max="51" width="9.140625" style="11"/>
-    <col min="52" max="52" width="9.140625" style="12"/>
-    <col min="53" max="54" width="9.140625" style="11"/>
+    <col min="6" max="11" width="10.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="12" style="11" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="34.42578125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="20" style="11" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="9" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="13"/>
+    <col min="23" max="52" width="9.140625" style="11"/>
+    <col min="53" max="53" width="9.140625" style="12"/>
+    <col min="54" max="55" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="85.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="2" customFormat="1" ht="85.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -937,43 +955,45 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="6"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
@@ -1003,16 +1023,17 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="16" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" s="24">
-        <v>36</v>
-      </c>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BA1" s="24">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="6"/>
+    </row>
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1034,38 +1055,38 @@
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>26</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>1500</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
         <v>32</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="15"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -1096,11 +1117,12 @@
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="9"/>
-    </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="9"/>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1122,38 +1144,38 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>5</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>26</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>1500</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7">
         <v>32</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="13"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -1184,11 +1206,12 @@
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="7"/>
-    </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="7"/>
+    </row>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1210,38 +1233,38 @@
       <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>26</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>1500</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>2166.6015451760031</v>
       </c>
-      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7">
         <v>32</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="13"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -1272,11 +1295,12 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="7"/>
-    </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1298,38 +1322,38 @@
       <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>5</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>1500</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>2166.6015451760031</v>
       </c>
-      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
         <v>32</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1360,11 +1384,12 @@
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="7"/>
+    </row>
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1386,38 +1411,38 @@
       <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>5</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>26</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>1500</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>2166.6015451760031</v>
       </c>
-      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7">
         <v>32</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="13"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1448,11 +1473,12 @@
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1470,38 +1496,38 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>26</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>1500</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>1020.2744223792106</v>
       </c>
-      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
         <v>20</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="13"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1532,11 +1558,12 @@
       <c r="AW7" s="7"/>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1558,36 +1585,36 @@
       <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
       </c>
       <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
         <v>1500</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>106.78865384170786</v>
       </c>
-      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -1618,11 +1645,12 @@
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1644,36 +1672,36 @@
       <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
       </c>
       <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
         <v>1500</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>31868.156742008869</v>
       </c>
-      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="13"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -1704,11 +1732,12 @@
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1730,36 +1759,36 @@
       <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
       </c>
       <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
         <v>1500</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>57145.902096582577</v>
       </c>
-      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -1790,11 +1819,12 @@
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1816,36 +1846,36 @@
       <c r="G11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
       </c>
       <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
         <v>1500</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>35361.131621832959</v>
       </c>
-      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="13"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -1876,11 +1906,12 @@
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1898,36 +1929,36 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" s="7">
-        <v>5</v>
       </c>
       <c r="L12" s="7">
         <v>5</v>
       </c>
       <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
         <v>1500</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>970461.35783296451</v>
       </c>
-      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="13"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -1958,11 +1989,12 @@
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="7"/>
-    </row>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="7"/>
+    </row>
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1984,38 +2016,38 @@
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
         <v>1500</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>6134.0514367823489</v>
       </c>
-      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
         <v>8</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="13"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -2046,11 +2078,12 @@
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="7"/>
-    </row>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="7"/>
+    </row>
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2068,38 +2101,38 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="7">
-        <v>5</v>
       </c>
       <c r="L14" s="7">
         <v>5</v>
       </c>
       <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
         <v>1500</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>225526.54427801445</v>
       </c>
-      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7">
+      <c r="R14" s="7"/>
+      <c r="S14" s="7">
         <v>8</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -2130,11 +2163,12 @@
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="7"/>
-    </row>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="7"/>
+    </row>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2152,40 +2186,40 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="7">
-        <v>5</v>
       </c>
       <c r="L15" s="7">
         <v>5</v>
       </c>
       <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
         <v>1500</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>225526.54427801445</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7">
+      <c r="R15" s="7"/>
+      <c r="S15" s="7">
         <v>8</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="13"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -2216,11 +2250,12 @@
       <c r="AW15" s="7"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="7"/>
-    </row>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="7"/>
+    </row>
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2238,38 +2273,38 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="7">
-        <v>5</v>
       </c>
       <c r="L16" s="7">
         <v>5</v>
       </c>
       <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
         <v>1500</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>225526.54427801445</v>
       </c>
-      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7">
+      <c r="R16" s="7"/>
+      <c r="S16" s="7">
         <v>8</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="13"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -2300,11 +2335,12 @@
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="7"/>
-    </row>
-    <row r="17" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="7"/>
+    </row>
+    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2322,40 +2358,40 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K17" s="7">
-        <v>5</v>
       </c>
       <c r="L17" s="7">
         <v>5</v>
       </c>
       <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
         <v>1500</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="7">
+      <c r="P17" s="7">
         <v>225526.54427801445</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7">
+      <c r="R17" s="7"/>
+      <c r="S17" s="7">
         <v>8</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="13"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -2386,11 +2422,12 @@
       <c r="AW17" s="7"/>
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="7"/>
-    </row>
-    <row r="18" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="7"/>
+    </row>
+    <row r="18" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2412,40 +2449,40 @@
       <c r="G18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
       </c>
       <c r="L18" s="7">
         <v>1</v>
       </c>
       <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
         <v>1500</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="7">
+      <c r="P18" s="7">
         <v>7643.5460680867545</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7">
+      <c r="R18" s="7"/>
+      <c r="S18" s="7">
         <v>8</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="13"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -2476,11 +2513,12 @@
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="7"/>
-    </row>
-    <row r="19" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="7"/>
+    </row>
+    <row r="19" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2498,40 +2536,40 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K19" s="7">
-        <v>5</v>
       </c>
       <c r="L19" s="7">
         <v>5</v>
       </c>
       <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
         <v>1500</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>238779.79446303844</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7">
+      <c r="R19" s="7"/>
+      <c r="S19" s="7">
         <v>8</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -2562,11 +2600,12 @@
       <c r="AW19" s="7"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="7"/>
-    </row>
-    <row r="20" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="7"/>
+    </row>
+    <row r="20" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2588,40 +2627,40 @@
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
       </c>
       <c r="L20" s="7">
         <v>1</v>
       </c>
       <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
         <v>1500</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>29194.277886208612</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7">
+      <c r="R20" s="7"/>
+      <c r="S20" s="7">
         <v>8</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -2652,11 +2691,12 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="7"/>
-    </row>
-    <row r="21" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="7"/>
+    </row>
+    <row r="21" spans="1:55" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2674,40 +2714,40 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="K21" s="17">
-        <v>5</v>
       </c>
       <c r="L21" s="17">
         <v>5</v>
       </c>
       <c r="M21" s="17">
+        <v>5</v>
+      </c>
+      <c r="N21" s="17">
         <v>1500</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="O21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="17">
+      <c r="P21" s="17">
         <v>502762.58136201277</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="Q21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17">
+      <c r="R21" s="17"/>
+      <c r="S21" s="17">
         <v>8</v>
       </c>
-      <c r="S21" s="17"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -2738,11 +2778,12 @@
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="17"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="17"/>
-    </row>
-    <row r="22" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="17"/>
+    </row>
+    <row r="22" spans="1:55" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2764,40 +2805,40 @@
       <c r="G22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="K22" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
       </c>
       <c r="L22" s="17">
         <v>1</v>
       </c>
       <c r="M22" s="17">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17">
         <v>1500</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="O22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="17">
+      <c r="P22" s="17">
         <v>12521.012163390871</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="Q22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17">
+      <c r="R22" s="17"/>
+      <c r="S22" s="17">
         <v>8</v>
       </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
@@ -2828,11 +2869,12 @@
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="17"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="17"/>
-    </row>
-    <row r="23" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="17"/>
+    </row>
+    <row r="23" spans="1:55" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -2850,38 +2892,38 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="K23" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="K23" s="17">
-        <v>5</v>
       </c>
       <c r="L23" s="17">
         <v>5</v>
       </c>
       <c r="M23" s="17">
+        <v>5</v>
+      </c>
+      <c r="N23" s="17">
         <v>1500</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="17">
+      <c r="P23" s="17">
         <v>183217.71177494153</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="Q23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17">
+      <c r="R23" s="17"/>
+      <c r="S23" s="17">
         <v>8</v>
       </c>
-      <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
@@ -2914,11 +2956,12 @@
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
       <c r="AY23" s="17"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="20"/>
-      <c r="BB23" s="17"/>
-    </row>
-    <row r="24" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="17"/>
+    </row>
+    <row r="24" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2940,38 +2983,38 @@
       <c r="G24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
       </c>
       <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
         <v>1500</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="7">
         <v>0</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7">
+      <c r="R24" s="7"/>
+      <c r="S24" s="7">
         <v>8</v>
       </c>
-      <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -3007,8 +3050,9 @@
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
-    </row>
-    <row r="25" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC24" s="7"/>
+    </row>
+    <row r="25" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3030,38 +3074,38 @@
       <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K25" s="7">
-        <v>1</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
       </c>
       <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
         <v>1500</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="7">
+      <c r="P25" s="7">
         <v>0</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7">
+      <c r="R25" s="7"/>
+      <c r="S25" s="7">
         <v>8</v>
       </c>
-      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3097,8 +3141,9 @@
       <c r="AZ25" s="7"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
-    </row>
-    <row r="26" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC25" s="7"/>
+    </row>
+    <row r="26" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3116,38 +3161,38 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K26" s="7">
-        <v>5</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
       </c>
       <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7">
         <v>1500</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="7">
         <v>0</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7">
+      <c r="R26" s="7"/>
+      <c r="S26" s="7">
         <v>8</v>
       </c>
-      <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -3183,8 +3228,9 @@
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
-    </row>
-    <row r="27" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC26" s="7"/>
+    </row>
+    <row r="27" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3202,38 +3248,38 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K27" s="7">
-        <v>5</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
       </c>
       <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
         <v>1500</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="O27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P27" s="7">
         <v>0</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7">
+      <c r="R27" s="7"/>
+      <c r="S27" s="7">
         <v>8</v>
       </c>
-      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3269,8 +3315,9 @@
       <c r="AZ27" s="7"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
-    </row>
-    <row r="28" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC27" s="7"/>
+    </row>
+    <row r="28" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3292,38 +3339,38 @@
       <c r="G28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
       </c>
       <c r="L28" s="7">
         <v>1</v>
       </c>
       <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
         <v>1500</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <v>2122409.0321430126</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7">
+      <c r="R28" s="7"/>
+      <c r="S28" s="7">
         <v>8</v>
       </c>
-      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -3359,8 +3406,9 @@
       <c r="AZ28" s="7"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
-    </row>
-    <row r="29" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC28" s="7"/>
+    </row>
+    <row r="29" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3382,38 +3430,38 @@
       <c r="G29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
       </c>
       <c r="L29" s="7">
         <v>1</v>
       </c>
       <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
         <v>1500</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="7">
+      <c r="P29" s="7">
         <v>2136483.0444896929</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7">
+      <c r="R29" s="7"/>
+      <c r="S29" s="7">
         <v>8</v>
       </c>
-      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3449,8 +3497,9 @@
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
-    </row>
-    <row r="30" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC29" s="7"/>
+    </row>
+    <row r="30" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -3468,38 +3517,38 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K30" s="7">
-        <v>5</v>
       </c>
       <c r="L30" s="7">
         <v>5</v>
       </c>
       <c r="M30" s="7">
+        <v>5</v>
+      </c>
+      <c r="N30" s="7">
         <v>1500</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="7">
+      <c r="P30" s="7">
         <v>32405505.888146028</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7">
+      <c r="R30" s="7"/>
+      <c r="S30" s="7">
         <v>8</v>
       </c>
-      <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -3535,8 +3584,9 @@
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
-    </row>
-    <row r="31" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC30" s="7"/>
+    </row>
+    <row r="31" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3554,38 +3604,38 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K31" s="7">
-        <v>5</v>
       </c>
       <c r="L31" s="7">
         <v>5</v>
       </c>
       <c r="M31" s="7">
+        <v>5</v>
+      </c>
+      <c r="N31" s="7">
         <v>1500</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O31" s="7">
+      <c r="P31" s="7">
         <v>2148916.6901589157</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7">
+      <c r="R31" s="7"/>
+      <c r="S31" s="7">
         <v>8</v>
       </c>
-      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3621,8 +3671,9 @@
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
-    </row>
-    <row r="32" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC31" s="7"/>
+    </row>
+    <row r="32" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -3644,38 +3695,38 @@
       <c r="G32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
       </c>
       <c r="L32" s="7">
         <v>1</v>
       </c>
       <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
         <v>1500</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="O32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>0</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7">
+      <c r="R32" s="7"/>
+      <c r="S32" s="7">
         <v>8</v>
       </c>
-      <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -3711,8 +3762,9 @@
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7"/>
-    </row>
-    <row r="33" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC32" s="7"/>
+    </row>
+    <row r="33" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3730,38 +3782,38 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
         <v>2</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
       </c>
       <c r="L33" s="7">
         <v>1</v>
       </c>
       <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
         <v>1500</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>7767716647.3344612</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7">
+      <c r="R33" s="7"/>
+      <c r="S33" s="7">
         <v>8</v>
       </c>
-      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3797,8 +3849,9 @@
       <c r="AZ33" s="7"/>
       <c r="BA33" s="7"/>
       <c r="BB33" s="7"/>
-    </row>
-    <row r="34" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC33" s="7"/>
+    </row>
+    <row r="34" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -3820,38 +3873,38 @@
       <c r="G34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
       </c>
       <c r="L34" s="7">
         <v>1</v>
       </c>
       <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
         <v>1500</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>441898.12790347892</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7">
+      <c r="R34" s="7"/>
+      <c r="S34" s="7">
         <v>13</v>
       </c>
-      <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -3887,8 +3940,9 @@
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
-    </row>
-    <row r="35" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC34" s="7"/>
+    </row>
+    <row r="35" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3943,8 +3997,9 @@
       <c r="AZ35" s="7"/>
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
-    </row>
-    <row r="36" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC35" s="7"/>
+    </row>
+    <row r="36" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -3996,7 +4051,6 @@
       <c r="S36" s="7">
         <v>13</v>
       </c>
-      <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -4031,28 +4085,60 @@
       <c r="AZ36" s="7"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
-    </row>
-    <row r="37" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="BC36" s="7"/>
+    </row>
+    <row r="37" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="7">
+        <v>100</v>
+      </c>
+      <c r="M37" s="7">
+        <v>30</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1500</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" s="7">
+        <v>82765.825894124646</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="S37" s="7">
+        <v>35</v>
+      </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -4087,28 +4173,60 @@
       <c r="AZ37" s="7"/>
       <c r="BA37" s="7"/>
       <c r="BB37" s="7"/>
-    </row>
-    <row r="38" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="BC37" s="7"/>
+    </row>
+    <row r="38" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="7">
+        <v>100</v>
+      </c>
+      <c r="M38" s="7">
+        <v>30</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1500</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="7">
+        <v>80231.466908124625</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="7">
+        <v>35</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -4143,8 +4261,9 @@
       <c r="AZ38" s="7"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
-    </row>
-    <row r="39" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC38" s="7"/>
+    </row>
+    <row r="39" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4199,8 +4318,9 @@
       <c r="AZ39" s="7"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
-    </row>
-    <row r="40" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC39" s="7"/>
+    </row>
+    <row r="40" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4255,8 +4375,9 @@
       <c r="AZ40" s="7"/>
       <c r="BA40" s="7"/>
       <c r="BB40" s="7"/>
-    </row>
-    <row r="41" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC40" s="7"/>
+    </row>
+    <row r="41" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4311,8 +4432,9 @@
       <c r="AZ41" s="7"/>
       <c r="BA41" s="7"/>
       <c r="BB41" s="7"/>
-    </row>
-    <row r="42" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC41" s="7"/>
+    </row>
+    <row r="42" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4367,8 +4489,9 @@
       <c r="AZ42" s="7"/>
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
-    </row>
-    <row r="43" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC42" s="7"/>
+    </row>
+    <row r="43" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4423,8 +4546,9 @@
       <c r="AZ43" s="7"/>
       <c r="BA43" s="7"/>
       <c r="BB43" s="7"/>
-    </row>
-    <row r="44" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC43" s="7"/>
+    </row>
+    <row r="44" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4479,8 +4603,9 @@
       <c r="AZ44" s="7"/>
       <c r="BA44" s="7"/>
       <c r="BB44" s="7"/>
-    </row>
-    <row r="45" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC44" s="7"/>
+    </row>
+    <row r="45" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4535,8 +4660,9 @@
       <c r="AZ45" s="7"/>
       <c r="BA45" s="7"/>
       <c r="BB45" s="7"/>
-    </row>
-    <row r="46" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC45" s="7"/>
+    </row>
+    <row r="46" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4591,8 +4717,9 @@
       <c r="AZ46" s="7"/>
       <c r="BA46" s="7"/>
       <c r="BB46" s="7"/>
-    </row>
-    <row r="47" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC46" s="7"/>
+    </row>
+    <row r="47" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4647,8 +4774,9 @@
       <c r="AZ47" s="7"/>
       <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
-    </row>
-    <row r="48" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC47" s="7"/>
+    </row>
+    <row r="48" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4703,8 +4831,9 @@
       <c r="AZ48" s="7"/>
       <c r="BA48" s="7"/>
       <c r="BB48" s="7"/>
-    </row>
-    <row r="49" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC48" s="7"/>
+    </row>
+    <row r="49" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4759,8 +4888,9 @@
       <c r="AZ49" s="7"/>
       <c r="BA49" s="7"/>
       <c r="BB49" s="7"/>
-    </row>
-    <row r="50" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC49" s="7"/>
+    </row>
+    <row r="50" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4815,8 +4945,9 @@
       <c r="AZ50" s="7"/>
       <c r="BA50" s="7"/>
       <c r="BB50" s="7"/>
-    </row>
-    <row r="51" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC50" s="7"/>
+    </row>
+    <row r="51" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4871,8 +5002,9 @@
       <c r="AZ51" s="7"/>
       <c r="BA51" s="7"/>
       <c r="BB51" s="7"/>
-    </row>
-    <row r="52" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC51" s="7"/>
+    </row>
+    <row r="52" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4927,8 +5059,9 @@
       <c r="AZ52" s="7"/>
       <c r="BA52" s="7"/>
       <c r="BB52" s="7"/>
-    </row>
-    <row r="53" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC52" s="7"/>
+    </row>
+    <row r="53" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4983,8 +5116,9 @@
       <c r="AZ53" s="7"/>
       <c r="BA53" s="7"/>
       <c r="BB53" s="7"/>
-    </row>
-    <row r="54" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC53" s="7"/>
+    </row>
+    <row r="54" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -5039,8 +5173,9 @@
       <c r="AZ54" s="7"/>
       <c r="BA54" s="7"/>
       <c r="BB54" s="7"/>
-    </row>
-    <row r="55" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC54" s="7"/>
+    </row>
+    <row r="55" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -5095,8 +5230,9 @@
       <c r="AZ55" s="7"/>
       <c r="BA55" s="7"/>
       <c r="BB55" s="7"/>
-    </row>
-    <row r="56" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC55" s="7"/>
+    </row>
+    <row r="56" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -5151,8 +5287,9 @@
       <c r="AZ56" s="7"/>
       <c r="BA56" s="7"/>
       <c r="BB56" s="7"/>
-    </row>
-    <row r="57" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC56" s="7"/>
+    </row>
+    <row r="57" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5207,8 +5344,9 @@
       <c r="AZ57" s="7"/>
       <c r="BA57" s="7"/>
       <c r="BB57" s="7"/>
-    </row>
-    <row r="58" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC57" s="7"/>
+    </row>
+    <row r="58" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5263,8 +5401,9 @@
       <c r="AZ58" s="7"/>
       <c r="BA58" s="7"/>
       <c r="BB58" s="7"/>
-    </row>
-    <row r="59" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC58" s="7"/>
+    </row>
+    <row r="59" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -5319,8 +5458,9 @@
       <c r="AZ59" s="7"/>
       <c r="BA59" s="7"/>
       <c r="BB59" s="7"/>
-    </row>
-    <row r="60" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC59" s="7"/>
+    </row>
+    <row r="60" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -5375,8 +5515,9 @@
       <c r="AZ60" s="7"/>
       <c r="BA60" s="7"/>
       <c r="BB60" s="7"/>
-    </row>
-    <row r="61" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC60" s="7"/>
+    </row>
+    <row r="61" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5431,8 +5572,9 @@
       <c r="AZ61" s="7"/>
       <c r="BA61" s="7"/>
       <c r="BB61" s="7"/>
-    </row>
-    <row r="62" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC61" s="7"/>
+    </row>
+    <row r="62" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5487,8 +5629,9 @@
       <c r="AZ62" s="7"/>
       <c r="BA62" s="7"/>
       <c r="BB62" s="7"/>
-    </row>
-    <row r="63" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC62" s="7"/>
+    </row>
+    <row r="63" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5543,8 +5686,9 @@
       <c r="AZ63" s="7"/>
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
-    </row>
-    <row r="64" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC63" s="7"/>
+    </row>
+    <row r="64" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5599,8 +5743,9 @@
       <c r="AZ64" s="7"/>
       <c r="BA64" s="7"/>
       <c r="BB64" s="7"/>
-    </row>
-    <row r="65" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC64" s="7"/>
+    </row>
+    <row r="65" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5655,8 +5800,9 @@
       <c r="AZ65" s="7"/>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
-    </row>
-    <row r="66" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC65" s="7"/>
+    </row>
+    <row r="66" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -5711,8 +5857,9 @@
       <c r="AZ66" s="7"/>
       <c r="BA66" s="7"/>
       <c r="BB66" s="7"/>
-    </row>
-    <row r="67" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC66" s="7"/>
+    </row>
+    <row r="67" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5767,8 +5914,9 @@
       <c r="AZ67" s="7"/>
       <c r="BA67" s="7"/>
       <c r="BB67" s="7"/>
-    </row>
-    <row r="68" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC67" s="7"/>
+    </row>
+    <row r="68" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5823,8 +5971,9 @@
       <c r="AZ68" s="7"/>
       <c r="BA68" s="7"/>
       <c r="BB68" s="7"/>
-    </row>
-    <row r="69" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC68" s="7"/>
+    </row>
+    <row r="69" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5879,8 +6028,9 @@
       <c r="AZ69" s="7"/>
       <c r="BA69" s="7"/>
       <c r="BB69" s="7"/>
-    </row>
-    <row r="70" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC69" s="7"/>
+    </row>
+    <row r="70" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5935,8 +6085,9 @@
       <c r="AZ70" s="7"/>
       <c r="BA70" s="7"/>
       <c r="BB70" s="7"/>
-    </row>
-    <row r="71" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC70" s="7"/>
+    </row>
+    <row r="71" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5991,8 +6142,9 @@
       <c r="AZ71" s="7"/>
       <c r="BA71" s="7"/>
       <c r="BB71" s="7"/>
-    </row>
-    <row r="72" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC71" s="7"/>
+    </row>
+    <row r="72" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6047,8 +6199,9 @@
       <c r="AZ72" s="7"/>
       <c r="BA72" s="7"/>
       <c r="BB72" s="7"/>
-    </row>
-    <row r="73" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC72" s="7"/>
+    </row>
+    <row r="73" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6103,8 +6256,9 @@
       <c r="AZ73" s="7"/>
       <c r="BA73" s="7"/>
       <c r="BB73" s="7"/>
-    </row>
-    <row r="74" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC73" s="7"/>
+    </row>
+    <row r="74" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6159,8 +6313,9 @@
       <c r="AZ74" s="7"/>
       <c r="BA74" s="7"/>
       <c r="BB74" s="7"/>
-    </row>
-    <row r="75" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC74" s="7"/>
+    </row>
+    <row r="75" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6215,8 +6370,9 @@
       <c r="AZ75" s="7"/>
       <c r="BA75" s="7"/>
       <c r="BB75" s="7"/>
-    </row>
-    <row r="76" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC75" s="7"/>
+    </row>
+    <row r="76" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6271,8 +6427,9 @@
       <c r="AZ76" s="7"/>
       <c r="BA76" s="7"/>
       <c r="BB76" s="7"/>
-    </row>
-    <row r="77" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC76" s="7"/>
+    </row>
+    <row r="77" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6327,8 +6484,9 @@
       <c r="AZ77" s="7"/>
       <c r="BA77" s="7"/>
       <c r="BB77" s="7"/>
-    </row>
-    <row r="78" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC77" s="7"/>
+    </row>
+    <row r="78" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6383,8 +6541,9 @@
       <c r="AZ78" s="7"/>
       <c r="BA78" s="7"/>
       <c r="BB78" s="7"/>
-    </row>
-    <row r="79" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC78" s="7"/>
+    </row>
+    <row r="79" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6439,8 +6598,9 @@
       <c r="AZ79" s="7"/>
       <c r="BA79" s="7"/>
       <c r="BB79" s="7"/>
-    </row>
-    <row r="80" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC79" s="7"/>
+    </row>
+    <row r="80" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6495,8 +6655,9 @@
       <c r="AZ80" s="7"/>
       <c r="BA80" s="7"/>
       <c r="BB80" s="7"/>
-    </row>
-    <row r="81" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC80" s="7"/>
+    </row>
+    <row r="81" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6551,8 +6712,9 @@
       <c r="AZ81" s="7"/>
       <c r="BA81" s="7"/>
       <c r="BB81" s="7"/>
-    </row>
-    <row r="82" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC81" s="7"/>
+    </row>
+    <row r="82" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6607,8 +6769,9 @@
       <c r="AZ82" s="7"/>
       <c r="BA82" s="7"/>
       <c r="BB82" s="7"/>
-    </row>
-    <row r="83" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC82" s="7"/>
+    </row>
+    <row r="83" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6663,8 +6826,9 @@
       <c r="AZ83" s="7"/>
       <c r="BA83" s="7"/>
       <c r="BB83" s="7"/>
-    </row>
-    <row r="84" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC83" s="7"/>
+    </row>
+    <row r="84" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6719,8 +6883,9 @@
       <c r="AZ84" s="7"/>
       <c r="BA84" s="7"/>
       <c r="BB84" s="7"/>
-    </row>
-    <row r="85" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC84" s="7"/>
+    </row>
+    <row r="85" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6775,8 +6940,9 @@
       <c r="AZ85" s="7"/>
       <c r="BA85" s="7"/>
       <c r="BB85" s="7"/>
-    </row>
-    <row r="86" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC85" s="7"/>
+    </row>
+    <row r="86" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -6831,8 +6997,9 @@
       <c r="AZ86" s="7"/>
       <c r="BA86" s="7"/>
       <c r="BB86" s="7"/>
-    </row>
-    <row r="87" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC86" s="7"/>
+    </row>
+    <row r="87" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -6887,8 +7054,9 @@
       <c r="AZ87" s="7"/>
       <c r="BA87" s="7"/>
       <c r="BB87" s="7"/>
-    </row>
-    <row r="88" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC87" s="7"/>
+    </row>
+    <row r="88" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -6943,8 +7111,9 @@
       <c r="AZ88" s="7"/>
       <c r="BA88" s="7"/>
       <c r="BB88" s="7"/>
-    </row>
-    <row r="89" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC88" s="7"/>
+    </row>
+    <row r="89" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -6999,8 +7168,9 @@
       <c r="AZ89" s="7"/>
       <c r="BA89" s="7"/>
       <c r="BB89" s="7"/>
-    </row>
-    <row r="90" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC89" s="7"/>
+    </row>
+    <row r="90" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7055,8 +7225,9 @@
       <c r="AZ90" s="7"/>
       <c r="BA90" s="7"/>
       <c r="BB90" s="7"/>
-    </row>
-    <row r="91" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC90" s="7"/>
+    </row>
+    <row r="91" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7111,8 +7282,9 @@
       <c r="AZ91" s="7"/>
       <c r="BA91" s="7"/>
       <c r="BB91" s="7"/>
-    </row>
-    <row r="92" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC91" s="7"/>
+    </row>
+    <row r="92" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7167,8 +7339,9 @@
       <c r="AZ92" s="7"/>
       <c r="BA92" s="7"/>
       <c r="BB92" s="7"/>
-    </row>
-    <row r="93" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC92" s="7"/>
+    </row>
+    <row r="93" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7223,8 +7396,9 @@
       <c r="AZ93" s="7"/>
       <c r="BA93" s="7"/>
       <c r="BB93" s="7"/>
-    </row>
-    <row r="94" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC93" s="7"/>
+    </row>
+    <row r="94" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7279,8 +7453,9 @@
       <c r="AZ94" s="7"/>
       <c r="BA94" s="7"/>
       <c r="BB94" s="7"/>
-    </row>
-    <row r="95" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC94" s="7"/>
+    </row>
+    <row r="95" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7335,8 +7510,9 @@
       <c r="AZ95" s="7"/>
       <c r="BA95" s="7"/>
       <c r="BB95" s="7"/>
-    </row>
-    <row r="96" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC95" s="7"/>
+    </row>
+    <row r="96" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7391,8 +7567,9 @@
       <c r="AZ96" s="7"/>
       <c r="BA96" s="7"/>
       <c r="BB96" s="7"/>
-    </row>
-    <row r="97" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC96" s="7"/>
+    </row>
+    <row r="97" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -7447,8 +7624,9 @@
       <c r="AZ97" s="7"/>
       <c r="BA97" s="7"/>
       <c r="BB97" s="7"/>
-    </row>
-    <row r="98" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC97" s="7"/>
+    </row>
+    <row r="98" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -7503,8 +7681,9 @@
       <c r="AZ98" s="7"/>
       <c r="BA98" s="7"/>
       <c r="BB98" s="7"/>
-    </row>
-    <row r="99" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC98" s="7"/>
+    </row>
+    <row r="99" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -7559,8 +7738,9 @@
       <c r="AZ99" s="7"/>
       <c r="BA99" s="7"/>
       <c r="BB99" s="7"/>
-    </row>
-    <row r="100" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC99" s="7"/>
+    </row>
+    <row r="100" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -7615,8 +7795,9 @@
       <c r="AZ100" s="7"/>
       <c r="BA100" s="7"/>
       <c r="BB100" s="7"/>
-    </row>
-    <row r="101" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC100" s="7"/>
+    </row>
+    <row r="101" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -7671,8 +7852,9 @@
       <c r="AZ101" s="7"/>
       <c r="BA101" s="7"/>
       <c r="BB101" s="7"/>
-    </row>
-    <row r="102" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC101" s="7"/>
+    </row>
+    <row r="102" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -7727,8 +7909,9 @@
       <c r="AZ102" s="7"/>
       <c r="BA102" s="7"/>
       <c r="BB102" s="7"/>
-    </row>
-    <row r="103" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC102" s="7"/>
+    </row>
+    <row r="103" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -7783,8 +7966,9 @@
       <c r="AZ103" s="7"/>
       <c r="BA103" s="7"/>
       <c r="BB103" s="7"/>
-    </row>
-    <row r="104" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC103" s="7"/>
+    </row>
+    <row r="104" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -7839,8 +8023,9 @@
       <c r="AZ104" s="7"/>
       <c r="BA104" s="7"/>
       <c r="BB104" s="7"/>
-    </row>
-    <row r="105" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC104" s="7"/>
+    </row>
+    <row r="105" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -7895,8 +8080,9 @@
       <c r="AZ105" s="7"/>
       <c r="BA105" s="7"/>
       <c r="BB105" s="7"/>
-    </row>
-    <row r="106" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC105" s="7"/>
+    </row>
+    <row r="106" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -7951,8 +8137,9 @@
       <c r="AZ106" s="7"/>
       <c r="BA106" s="7"/>
       <c r="BB106" s="7"/>
-    </row>
-    <row r="107" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC106" s="7"/>
+    </row>
+    <row r="107" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8007,8 +8194,9 @@
       <c r="AZ107" s="7"/>
       <c r="BA107" s="7"/>
       <c r="BB107" s="7"/>
-    </row>
-    <row r="108" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC107" s="7"/>
+    </row>
+    <row r="108" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -8063,8 +8251,9 @@
       <c r="AZ108" s="7"/>
       <c r="BA108" s="7"/>
       <c r="BB108" s="7"/>
-    </row>
-    <row r="109" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC108" s="7"/>
+    </row>
+    <row r="109" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -8119,8 +8308,9 @@
       <c r="AZ109" s="7"/>
       <c r="BA109" s="7"/>
       <c r="BB109" s="7"/>
-    </row>
-    <row r="110" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC109" s="7"/>
+    </row>
+    <row r="110" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -8175,8 +8365,9 @@
       <c r="AZ110" s="7"/>
       <c r="BA110" s="7"/>
       <c r="BB110" s="7"/>
-    </row>
-    <row r="111" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC110" s="7"/>
+    </row>
+    <row r="111" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -8231,8 +8422,9 @@
       <c r="AZ111" s="7"/>
       <c r="BA111" s="7"/>
       <c r="BB111" s="7"/>
-    </row>
-    <row r="112" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC111" s="7"/>
+    </row>
+    <row r="112" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -8287,8 +8479,9 @@
       <c r="AZ112" s="7"/>
       <c r="BA112" s="7"/>
       <c r="BB112" s="7"/>
-    </row>
-    <row r="113" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC112" s="7"/>
+    </row>
+    <row r="113" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -8343,8 +8536,9 @@
       <c r="AZ113" s="7"/>
       <c r="BA113" s="7"/>
       <c r="BB113" s="7"/>
-    </row>
-    <row r="114" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC113" s="7"/>
+    </row>
+    <row r="114" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -8399,8 +8593,9 @@
       <c r="AZ114" s="7"/>
       <c r="BA114" s="7"/>
       <c r="BB114" s="7"/>
-    </row>
-    <row r="115" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC114" s="7"/>
+    </row>
+    <row r="115" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -8455,8 +8650,9 @@
       <c r="AZ115" s="7"/>
       <c r="BA115" s="7"/>
       <c r="BB115" s="7"/>
-    </row>
-    <row r="116" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC115" s="7"/>
+    </row>
+    <row r="116" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -8511,8 +8707,9 @@
       <c r="AZ116" s="7"/>
       <c r="BA116" s="7"/>
       <c r="BB116" s="7"/>
-    </row>
-    <row r="117" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC116" s="7"/>
+    </row>
+    <row r="117" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -8567,8 +8764,9 @@
       <c r="AZ117" s="7"/>
       <c r="BA117" s="7"/>
       <c r="BB117" s="7"/>
-    </row>
-    <row r="118" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC117" s="7"/>
+    </row>
+    <row r="118" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -8623,8 +8821,9 @@
       <c r="AZ118" s="7"/>
       <c r="BA118" s="7"/>
       <c r="BB118" s="7"/>
-    </row>
-    <row r="119" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC118" s="7"/>
+    </row>
+    <row r="119" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -8679,8 +8878,9 @@
       <c r="AZ119" s="7"/>
       <c r="BA119" s="7"/>
       <c r="BB119" s="7"/>
-    </row>
-    <row r="120" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC119" s="7"/>
+    </row>
+    <row r="120" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -8735,8 +8935,9 @@
       <c r="AZ120" s="7"/>
       <c r="BA120" s="7"/>
       <c r="BB120" s="7"/>
-    </row>
-    <row r="121" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC120" s="7"/>
+    </row>
+    <row r="121" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -8791,8 +8992,9 @@
       <c r="AZ121" s="7"/>
       <c r="BA121" s="7"/>
       <c r="BB121" s="7"/>
-    </row>
-    <row r="122" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC121" s="7"/>
+    </row>
+    <row r="122" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -8847,8 +9049,9 @@
       <c r="AZ122" s="7"/>
       <c r="BA122" s="7"/>
       <c r="BB122" s="7"/>
-    </row>
-    <row r="123" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC122" s="7"/>
+    </row>
+    <row r="123" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -8903,8 +9106,9 @@
       <c r="AZ123" s="7"/>
       <c r="BA123" s="7"/>
       <c r="BB123" s="7"/>
-    </row>
-    <row r="124" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC123" s="7"/>
+    </row>
+    <row r="124" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -8959,8 +9163,9 @@
       <c r="AZ124" s="7"/>
       <c r="BA124" s="7"/>
       <c r="BB124" s="7"/>
-    </row>
-    <row r="125" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC124" s="7"/>
+    </row>
+    <row r="125" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -9015,8 +9220,9 @@
       <c r="AZ125" s="7"/>
       <c r="BA125" s="7"/>
       <c r="BB125" s="7"/>
-    </row>
-    <row r="126" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC125" s="7"/>
+    </row>
+    <row r="126" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -9071,8 +9277,9 @@
       <c r="AZ126" s="7"/>
       <c r="BA126" s="7"/>
       <c r="BB126" s="7"/>
-    </row>
-    <row r="127" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC126" s="7"/>
+    </row>
+    <row r="127" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -9127,8 +9334,9 @@
       <c r="AZ127" s="7"/>
       <c r="BA127" s="7"/>
       <c r="BB127" s="7"/>
-    </row>
-    <row r="128" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC127" s="7"/>
+    </row>
+    <row r="128" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -9183,8 +9391,9 @@
       <c r="AZ128" s="7"/>
       <c r="BA128" s="7"/>
       <c r="BB128" s="7"/>
-    </row>
-    <row r="129" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC128" s="7"/>
+    </row>
+    <row r="129" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -9239,8 +9448,9 @@
       <c r="AZ129" s="7"/>
       <c r="BA129" s="7"/>
       <c r="BB129" s="7"/>
-    </row>
-    <row r="130" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC129" s="7"/>
+    </row>
+    <row r="130" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -9295,8 +9505,9 @@
       <c r="AZ130" s="7"/>
       <c r="BA130" s="7"/>
       <c r="BB130" s="7"/>
-    </row>
-    <row r="131" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC130" s="7"/>
+    </row>
+    <row r="131" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -9351,8 +9562,9 @@
       <c r="AZ131" s="7"/>
       <c r="BA131" s="7"/>
       <c r="BB131" s="7"/>
-    </row>
-    <row r="132" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC131" s="7"/>
+    </row>
+    <row r="132" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -9407,8 +9619,9 @@
       <c r="AZ132" s="7"/>
       <c r="BA132" s="7"/>
       <c r="BB132" s="7"/>
-    </row>
-    <row r="133" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC132" s="7"/>
+    </row>
+    <row r="133" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -9463,8 +9676,9 @@
       <c r="AZ133" s="7"/>
       <c r="BA133" s="7"/>
       <c r="BB133" s="7"/>
-    </row>
-    <row r="134" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC133" s="7"/>
+    </row>
+    <row r="134" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -9519,8 +9733,9 @@
       <c r="AZ134" s="7"/>
       <c r="BA134" s="7"/>
       <c r="BB134" s="7"/>
-    </row>
-    <row r="135" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC134" s="7"/>
+    </row>
+    <row r="135" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -9575,8 +9790,9 @@
       <c r="AZ135" s="7"/>
       <c r="BA135" s="7"/>
       <c r="BB135" s="7"/>
-    </row>
-    <row r="136" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC135" s="7"/>
+    </row>
+    <row r="136" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -9631,8 +9847,9 @@
       <c r="AZ136" s="7"/>
       <c r="BA136" s="7"/>
       <c r="BB136" s="7"/>
-    </row>
-    <row r="137" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC136" s="7"/>
+    </row>
+    <row r="137" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -9687,8 +9904,9 @@
       <c r="AZ137" s="7"/>
       <c r="BA137" s="7"/>
       <c r="BB137" s="7"/>
-    </row>
-    <row r="138" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC137" s="7"/>
+    </row>
+    <row r="138" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -9743,8 +9961,9 @@
       <c r="AZ138" s="7"/>
       <c r="BA138" s="7"/>
       <c r="BB138" s="7"/>
-    </row>
-    <row r="139" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC138" s="7"/>
+    </row>
+    <row r="139" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -9799,8 +10018,9 @@
       <c r="AZ139" s="7"/>
       <c r="BA139" s="7"/>
       <c r="BB139" s="7"/>
-    </row>
-    <row r="140" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC139" s="7"/>
+    </row>
+    <row r="140" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -9855,8 +10075,9 @@
       <c r="AZ140" s="7"/>
       <c r="BA140" s="7"/>
       <c r="BB140" s="7"/>
-    </row>
-    <row r="141" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC140" s="7"/>
+    </row>
+    <row r="141" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -9911,8 +10132,9 @@
       <c r="AZ141" s="7"/>
       <c r="BA141" s="7"/>
       <c r="BB141" s="7"/>
-    </row>
-    <row r="142" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC141" s="7"/>
+    </row>
+    <row r="142" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -9967,8 +10189,9 @@
       <c r="AZ142" s="7"/>
       <c r="BA142" s="7"/>
       <c r="BB142" s="7"/>
-    </row>
-    <row r="143" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC142" s="7"/>
+    </row>
+    <row r="143" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -10023,8 +10246,9 @@
       <c r="AZ143" s="7"/>
       <c r="BA143" s="7"/>
       <c r="BB143" s="7"/>
-    </row>
-    <row r="144" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC143" s="7"/>
+    </row>
+    <row r="144" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -10079,8 +10303,9 @@
       <c r="AZ144" s="7"/>
       <c r="BA144" s="7"/>
       <c r="BB144" s="7"/>
-    </row>
-    <row r="145" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC144" s="7"/>
+    </row>
+    <row r="145" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -10135,8 +10360,9 @@
       <c r="AZ145" s="7"/>
       <c r="BA145" s="7"/>
       <c r="BB145" s="7"/>
-    </row>
-    <row r="146" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC145" s="7"/>
+    </row>
+    <row r="146" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -10191,8 +10417,9 @@
       <c r="AZ146" s="7"/>
       <c r="BA146" s="7"/>
       <c r="BB146" s="7"/>
-    </row>
-    <row r="147" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC146" s="7"/>
+    </row>
+    <row r="147" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -10247,8 +10474,9 @@
       <c r="AZ147" s="7"/>
       <c r="BA147" s="7"/>
       <c r="BB147" s="7"/>
-    </row>
-    <row r="148" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC147" s="7"/>
+    </row>
+    <row r="148" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -10303,8 +10531,9 @@
       <c r="AZ148" s="7"/>
       <c r="BA148" s="7"/>
       <c r="BB148" s="7"/>
-    </row>
-    <row r="149" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC148" s="7"/>
+    </row>
+    <row r="149" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -10359,8 +10588,9 @@
       <c r="AZ149" s="7"/>
       <c r="BA149" s="7"/>
       <c r="BB149" s="7"/>
-    </row>
-    <row r="150" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC149" s="7"/>
+    </row>
+    <row r="150" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -10415,8 +10645,9 @@
       <c r="AZ150" s="7"/>
       <c r="BA150" s="7"/>
       <c r="BB150" s="7"/>
-    </row>
-    <row r="151" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC150" s="7"/>
+    </row>
+    <row r="151" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -10471,8 +10702,9 @@
       <c r="AZ151" s="7"/>
       <c r="BA151" s="7"/>
       <c r="BB151" s="7"/>
-    </row>
-    <row r="152" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC151" s="7"/>
+    </row>
+    <row r="152" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -10527,8 +10759,9 @@
       <c r="AZ152" s="7"/>
       <c r="BA152" s="7"/>
       <c r="BB152" s="7"/>
-    </row>
-    <row r="153" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC152" s="7"/>
+    </row>
+    <row r="153" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -10583,8 +10816,9 @@
       <c r="AZ153" s="7"/>
       <c r="BA153" s="7"/>
       <c r="BB153" s="7"/>
-    </row>
-    <row r="154" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC153" s="7"/>
+    </row>
+    <row r="154" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -10639,8 +10873,9 @@
       <c r="AZ154" s="7"/>
       <c r="BA154" s="7"/>
       <c r="BB154" s="7"/>
-    </row>
-    <row r="155" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC154" s="7"/>
+    </row>
+    <row r="155" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -10695,8 +10930,9 @@
       <c r="AZ155" s="7"/>
       <c r="BA155" s="7"/>
       <c r="BB155" s="7"/>
-    </row>
-    <row r="156" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC155" s="7"/>
+    </row>
+    <row r="156" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -10751,8 +10987,9 @@
       <c r="AZ156" s="7"/>
       <c r="BA156" s="7"/>
       <c r="BB156" s="7"/>
-    </row>
-    <row r="157" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC156" s="7"/>
+    </row>
+    <row r="157" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -10807,8 +11044,9 @@
       <c r="AZ157" s="7"/>
       <c r="BA157" s="7"/>
       <c r="BB157" s="7"/>
-    </row>
-    <row r="158" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC157" s="7"/>
+    </row>
+    <row r="158" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -10863,8 +11101,9 @@
       <c r="AZ158" s="7"/>
       <c r="BA158" s="7"/>
       <c r="BB158" s="7"/>
-    </row>
-    <row r="159" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC158" s="7"/>
+    </row>
+    <row r="159" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -10919,8 +11158,9 @@
       <c r="AZ159" s="7"/>
       <c r="BA159" s="7"/>
       <c r="BB159" s="7"/>
-    </row>
-    <row r="160" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC159" s="7"/>
+    </row>
+    <row r="160" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -10975,8 +11215,9 @@
       <c r="AZ160" s="7"/>
       <c r="BA160" s="7"/>
       <c r="BB160" s="7"/>
-    </row>
-    <row r="161" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC160" s="7"/>
+    </row>
+    <row r="161" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -11031,8 +11272,9 @@
       <c r="AZ161" s="7"/>
       <c r="BA161" s="7"/>
       <c r="BB161" s="7"/>
-    </row>
-    <row r="162" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC161" s="7"/>
+    </row>
+    <row r="162" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -11087,8 +11329,9 @@
       <c r="AZ162" s="7"/>
       <c r="BA162" s="7"/>
       <c r="BB162" s="7"/>
-    </row>
-    <row r="163" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC162" s="7"/>
+    </row>
+    <row r="163" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -11143,8 +11386,9 @@
       <c r="AZ163" s="7"/>
       <c r="BA163" s="7"/>
       <c r="BB163" s="7"/>
-    </row>
-    <row r="164" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC163" s="7"/>
+    </row>
+    <row r="164" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -11199,8 +11443,9 @@
       <c r="AZ164" s="7"/>
       <c r="BA164" s="7"/>
       <c r="BB164" s="7"/>
-    </row>
-    <row r="165" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC164" s="7"/>
+    </row>
+    <row r="165" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -11255,8 +11500,9 @@
       <c r="AZ165" s="7"/>
       <c r="BA165" s="7"/>
       <c r="BB165" s="7"/>
-    </row>
-    <row r="166" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC165" s="7"/>
+    </row>
+    <row r="166" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -11311,8 +11557,9 @@
       <c r="AZ166" s="7"/>
       <c r="BA166" s="7"/>
       <c r="BB166" s="7"/>
-    </row>
-    <row r="167" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC166" s="7"/>
+    </row>
+    <row r="167" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -11367,8 +11614,9 @@
       <c r="AZ167" s="7"/>
       <c r="BA167" s="7"/>
       <c r="BB167" s="7"/>
-    </row>
-    <row r="168" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC167" s="7"/>
+    </row>
+    <row r="168" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -11423,8 +11671,9 @@
       <c r="AZ168" s="7"/>
       <c r="BA168" s="7"/>
       <c r="BB168" s="7"/>
-    </row>
-    <row r="169" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC168" s="7"/>
+    </row>
+    <row r="169" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -11479,8 +11728,9 @@
       <c r="AZ169" s="7"/>
       <c r="BA169" s="7"/>
       <c r="BB169" s="7"/>
-    </row>
-    <row r="170" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC169" s="7"/>
+    </row>
+    <row r="170" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -11535,8 +11785,9 @@
       <c r="AZ170" s="7"/>
       <c r="BA170" s="7"/>
       <c r="BB170" s="7"/>
-    </row>
-    <row r="171" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC170" s="7"/>
+    </row>
+    <row r="171" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -11591,8 +11842,9 @@
       <c r="AZ171" s="7"/>
       <c r="BA171" s="7"/>
       <c r="BB171" s="7"/>
-    </row>
-    <row r="172" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC171" s="7"/>
+    </row>
+    <row r="172" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -11647,8 +11899,9 @@
       <c r="AZ172" s="7"/>
       <c r="BA172" s="7"/>
       <c r="BB172" s="7"/>
-    </row>
-    <row r="173" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC172" s="7"/>
+    </row>
+    <row r="173" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -11703,8 +11956,9 @@
       <c r="AZ173" s="7"/>
       <c r="BA173" s="7"/>
       <c r="BB173" s="7"/>
-    </row>
-    <row r="174" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC173" s="7"/>
+    </row>
+    <row r="174" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -11759,8 +12013,9 @@
       <c r="AZ174" s="7"/>
       <c r="BA174" s="7"/>
       <c r="BB174" s="7"/>
-    </row>
-    <row r="175" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC174" s="7"/>
+    </row>
+    <row r="175" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -11815,8 +12070,9 @@
       <c r="AZ175" s="7"/>
       <c r="BA175" s="7"/>
       <c r="BB175" s="7"/>
-    </row>
-    <row r="176" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC175" s="7"/>
+    </row>
+    <row r="176" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -11871,8 +12127,9 @@
       <c r="AZ176" s="7"/>
       <c r="BA176" s="7"/>
       <c r="BB176" s="7"/>
-    </row>
-    <row r="177" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC176" s="7"/>
+    </row>
+    <row r="177" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -11927,8 +12184,9 @@
       <c r="AZ177" s="7"/>
       <c r="BA177" s="7"/>
       <c r="BB177" s="7"/>
-    </row>
-    <row r="178" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC177" s="7"/>
+    </row>
+    <row r="178" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -11983,8 +12241,9 @@
       <c r="AZ178" s="7"/>
       <c r="BA178" s="7"/>
       <c r="BB178" s="7"/>
-    </row>
-    <row r="179" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC178" s="7"/>
+    </row>
+    <row r="179" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -12039,8 +12298,9 @@
       <c r="AZ179" s="7"/>
       <c r="BA179" s="7"/>
       <c r="BB179" s="7"/>
-    </row>
-    <row r="180" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC179" s="7"/>
+    </row>
+    <row r="180" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -12095,8 +12355,9 @@
       <c r="AZ180" s="7"/>
       <c r="BA180" s="7"/>
       <c r="BB180" s="7"/>
-    </row>
-    <row r="181" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC180" s="7"/>
+    </row>
+    <row r="181" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -12151,8 +12412,9 @@
       <c r="AZ181" s="7"/>
       <c r="BA181" s="7"/>
       <c r="BB181" s="7"/>
-    </row>
-    <row r="182" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC181" s="7"/>
+    </row>
+    <row r="182" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -12207,8 +12469,9 @@
       <c r="AZ182" s="7"/>
       <c r="BA182" s="7"/>
       <c r="BB182" s="7"/>
-    </row>
-    <row r="183" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC182" s="7"/>
+    </row>
+    <row r="183" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -12263,8 +12526,9 @@
       <c r="AZ183" s="7"/>
       <c r="BA183" s="7"/>
       <c r="BB183" s="7"/>
-    </row>
-    <row r="184" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC183" s="7"/>
+    </row>
+    <row r="184" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -12319,8 +12583,9 @@
       <c r="AZ184" s="7"/>
       <c r="BA184" s="7"/>
       <c r="BB184" s="7"/>
-    </row>
-    <row r="185" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC184" s="7"/>
+    </row>
+    <row r="185" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -12375,8 +12640,9 @@
       <c r="AZ185" s="7"/>
       <c r="BA185" s="7"/>
       <c r="BB185" s="7"/>
-    </row>
-    <row r="186" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC185" s="7"/>
+    </row>
+    <row r="186" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -12431,8 +12697,9 @@
       <c r="AZ186" s="7"/>
       <c r="BA186" s="7"/>
       <c r="BB186" s="7"/>
-    </row>
-    <row r="187" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC186" s="7"/>
+    </row>
+    <row r="187" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -12487,8 +12754,9 @@
       <c r="AZ187" s="7"/>
       <c r="BA187" s="7"/>
       <c r="BB187" s="7"/>
-    </row>
-    <row r="188" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC187" s="7"/>
+    </row>
+    <row r="188" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -12543,8 +12811,9 @@
       <c r="AZ188" s="7"/>
       <c r="BA188" s="7"/>
       <c r="BB188" s="7"/>
-    </row>
-    <row r="189" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC188" s="7"/>
+    </row>
+    <row r="189" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -12599,8 +12868,9 @@
       <c r="AZ189" s="7"/>
       <c r="BA189" s="7"/>
       <c r="BB189" s="7"/>
-    </row>
-    <row r="190" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC189" s="7"/>
+    </row>
+    <row r="190" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -12655,8 +12925,9 @@
       <c r="AZ190" s="7"/>
       <c r="BA190" s="7"/>
       <c r="BB190" s="7"/>
-    </row>
-    <row r="191" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC190" s="7"/>
+    </row>
+    <row r="191" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -12711,8 +12982,9 @@
       <c r="AZ191" s="7"/>
       <c r="BA191" s="7"/>
       <c r="BB191" s="7"/>
-    </row>
-    <row r="192" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC191" s="7"/>
+    </row>
+    <row r="192" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -12767,8 +13039,9 @@
       <c r="AZ192" s="7"/>
       <c r="BA192" s="7"/>
       <c r="BB192" s="7"/>
-    </row>
-    <row r="193" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC192" s="7"/>
+    </row>
+    <row r="193" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -12823,8 +13096,9 @@
       <c r="AZ193" s="7"/>
       <c r="BA193" s="7"/>
       <c r="BB193" s="7"/>
-    </row>
-    <row r="194" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC193" s="7"/>
+    </row>
+    <row r="194" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -12879,8 +13153,9 @@
       <c r="AZ194" s="7"/>
       <c r="BA194" s="7"/>
       <c r="BB194" s="7"/>
-    </row>
-    <row r="195" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC194" s="7"/>
+    </row>
+    <row r="195" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -12935,8 +13210,9 @@
       <c r="AZ195" s="7"/>
       <c r="BA195" s="7"/>
       <c r="BB195" s="7"/>
-    </row>
-    <row r="196" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC195" s="7"/>
+    </row>
+    <row r="196" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -12991,8 +13267,9 @@
       <c r="AZ196" s="7"/>
       <c r="BA196" s="7"/>
       <c r="BB196" s="7"/>
-    </row>
-    <row r="197" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC196" s="7"/>
+    </row>
+    <row r="197" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -13047,8 +13324,9 @@
       <c r="AZ197" s="7"/>
       <c r="BA197" s="7"/>
       <c r="BB197" s="7"/>
-    </row>
-    <row r="198" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC197" s="7"/>
+    </row>
+    <row r="198" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -13103,8 +13381,9 @@
       <c r="AZ198" s="7"/>
       <c r="BA198" s="7"/>
       <c r="BB198" s="7"/>
-    </row>
-    <row r="199" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC198" s="7"/>
+    </row>
+    <row r="199" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -13159,8 +13438,9 @@
       <c r="AZ199" s="7"/>
       <c r="BA199" s="7"/>
       <c r="BB199" s="7"/>
-    </row>
-    <row r="200" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC199" s="7"/>
+    </row>
+    <row r="200" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -13215,8 +13495,9 @@
       <c r="AZ200" s="7"/>
       <c r="BA200" s="7"/>
       <c r="BB200" s="7"/>
-    </row>
-    <row r="201" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC200" s="7"/>
+    </row>
+    <row r="201" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -13271,8 +13552,9 @@
       <c r="AZ201" s="7"/>
       <c r="BA201" s="7"/>
       <c r="BB201" s="7"/>
-    </row>
-    <row r="202" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC201" s="7"/>
+    </row>
+    <row r="202" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -13327,6 +13609,7 @@
       <c r="AZ202" s="7"/>
       <c r="BA202" s="7"/>
       <c r="BB202" s="7"/>
+      <c r="BC202" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13340,7 +13623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13352,7 +13635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13366,7 +13649,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
